--- a/hx_data.xlsx
+++ b/hx_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,52 +446,82 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>T cold in (C)</t>
+          <t>eff_NTU</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>T cold out (C)</t>
+          <t>mass (kg)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>T hot in (C)</t>
+          <t>tube_number</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>T hot out (C)</t>
+          <t>baffle_number</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>dP_cold (bar)</t>
+          <t>pitch</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>dP_hot (bar)</t>
+          <t>tube_length</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>eff_NTU</t>
+          <t>plenum_length_1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>mass (kg)</t>
+          <t>plenum_length_2</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>mdot_cold (l/s)</t>
+          <t>baffle_gap</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>mdot_hot (l/s)</t>
+          <t>baffle_type</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>tube_layout</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>shell_passes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>tube_bundle_diameter</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>tube_passes</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>baffle_spacing_in</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>baffle_spacing_out</t>
         </is>
       </c>
     </row>
@@ -505,34 +535,56 @@
         <v>20144.78422942807</v>
       </c>
       <c r="C2" t="n">
-        <v>19.2</v>
+        <v>0.3561295645463207</v>
       </c>
       <c r="D2" t="n">
-        <v>29.78461217882253</v>
+        <v>1.059980112964814</v>
       </c>
       <c r="E2" t="n">
-        <v>53.4</v>
+        <v>23</v>
       </c>
       <c r="F2" t="n">
-        <v>41.27036889251583</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2740317678777384</v>
+        <v>0.01</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1957162938035989</v>
+        <v>0.15</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3561295645463207</v>
+        <v>0.041</v>
       </c>
       <c r="J2" t="n">
-        <v>1.059980112964814</v>
+        <v>0.041</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4585842453082158</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.3999368817249969</v>
+        <v>0.01</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.041</v>
       </c>
     </row>
     <row r="3">
@@ -545,34 +597,56 @@
         <v>19730.4814330626</v>
       </c>
       <c r="C3" t="n">
-        <v>19.2</v>
+        <v>0.3488030025803681</v>
       </c>
       <c r="D3" t="n">
-        <v>30.18223822147402</v>
+        <v>1.065347224363383</v>
       </c>
       <c r="E3" t="n">
-        <v>53.4</v>
+        <v>23</v>
       </c>
       <c r="F3" t="n">
-        <v>41.52093731175141</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3152727228419884</v>
+        <v>0.01</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1956941760046425</v>
+        <v>0.15</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3488030025803681</v>
+        <v>0.041</v>
       </c>
       <c r="J3" t="n">
-        <v>1.065347224363383</v>
+        <v>0.041</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4289380013098649</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.3999598228739971</v>
+        <v>0.01</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.041</v>
       </c>
     </row>
     <row r="4">
@@ -585,34 +659,56 @@
         <v>19700.0376421661</v>
       </c>
       <c r="C4" t="n">
-        <v>19.2</v>
+        <v>0.354316607979821</v>
       </c>
       <c r="D4" t="n">
-        <v>29.46426584200347</v>
+        <v>1.030250415596729</v>
       </c>
       <c r="E4" t="n">
-        <v>53.4</v>
+        <v>22</v>
       </c>
       <c r="F4" t="n">
-        <v>41.33237200709011</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2747773832141867</v>
+        <v>0.01</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2043174708387382</v>
+        <v>0.15</v>
       </c>
       <c r="I4" t="n">
-        <v>0.354316607979821</v>
+        <v>0.041</v>
       </c>
       <c r="J4" t="n">
-        <v>1.030250415596729</v>
+        <v>0.041</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4580224019399108</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.3931129975213985</v>
+        <v>0.01</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.041</v>
       </c>
     </row>
     <row r="5">
@@ -625,34 +721,56 @@
         <v>19307.86570759079</v>
       </c>
       <c r="C5" t="n">
-        <v>19.2</v>
+        <v>0.347260932675677</v>
       </c>
       <c r="D5" t="n">
-        <v>29.96408354092078</v>
+        <v>1.035685102653277</v>
       </c>
       <c r="E5" t="n">
-        <v>53.4</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>41.57367610249184</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3165693286054497</v>
+        <v>0.01</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2042951725896257</v>
+        <v>0.15</v>
       </c>
       <c r="I5" t="n">
-        <v>0.347260932675677</v>
+        <v>0.041</v>
       </c>
       <c r="J5" t="n">
-        <v>1.035685102653277</v>
+        <v>0.041</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4282014743670661</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.3931347601504916</v>
+        <v>0.01</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.041</v>
       </c>
     </row>
     <row r="6">
@@ -665,34 +783,56 @@
         <v>19233.97099700361</v>
       </c>
       <c r="C6" t="n">
-        <v>19.2</v>
+        <v>0.3524101217323519</v>
       </c>
       <c r="D6" t="n">
-        <v>29.23229138021487</v>
+        <v>1.000520718228644</v>
       </c>
       <c r="E6" t="n">
-        <v>53.4</v>
+        <v>21</v>
       </c>
       <c r="F6" t="n">
-        <v>41.39757383675357</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2755362344542457</v>
+        <v>0.01</v>
       </c>
       <c r="H6" t="n">
-        <v>0.21379650186261</v>
+        <v>0.15</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3524101217323519</v>
+        <v>0.041</v>
       </c>
       <c r="J6" t="n">
-        <v>1.000520718228644</v>
+        <v>0.041</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4574563992575496</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.3858936954305615</v>
+        <v>0.01</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.041</v>
       </c>
     </row>
     <row r="7">
@@ -705,34 +845,56 @@
         <v>19208.61989390947</v>
       </c>
       <c r="C7" t="n">
-        <v>19.2</v>
+        <v>0.3395745114592715</v>
       </c>
       <c r="D7" t="n">
-        <v>30.68975044876714</v>
+        <v>1.070714335761953</v>
       </c>
       <c r="E7" t="n">
-        <v>53.4</v>
+        <v>23</v>
       </c>
       <c r="F7" t="n">
-        <v>41.83655170809291</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3502513670097547</v>
+        <v>0.01</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1956668245900523</v>
+        <v>0.15</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3395745114592715</v>
+        <v>0.041</v>
       </c>
       <c r="J7" t="n">
-        <v>1.070714335761953</v>
+        <v>0.041</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3992624094629201</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.3999883925776365</v>
+        <v>0.01</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.041</v>
       </c>
     </row>
     <row r="8">
@@ -745,34 +907,56 @@
         <v>18861.95725734438</v>
       </c>
       <c r="C8" t="n">
-        <v>19.2</v>
+        <v>0.3455918090409512</v>
       </c>
       <c r="D8" t="n">
-        <v>29.83188352623529</v>
+        <v>1.006022980943171</v>
       </c>
       <c r="E8" t="n">
-        <v>53.4</v>
+        <v>21</v>
       </c>
       <c r="F8" t="n">
-        <v>41.63076013079947</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3179307894118654</v>
+        <v>0.01</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2137740667727978</v>
+        <v>0.15</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3455918090409512</v>
+        <v>0.041</v>
       </c>
       <c r="J8" t="n">
-        <v>1.006022980943171</v>
+        <v>0.041</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4274661756276255</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.3859142781133882</v>
+        <v>0.01</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.041</v>
       </c>
     </row>
     <row r="9">
@@ -785,34 +969,56 @@
         <v>18810.1389059306</v>
       </c>
       <c r="C9" t="n">
-        <v>19.2</v>
+        <v>0.3383063333004852</v>
       </c>
       <c r="D9" t="n">
-        <v>30.4765014467762</v>
+        <v>1.041119789709825</v>
       </c>
       <c r="E9" t="n">
-        <v>53.4</v>
+        <v>22</v>
       </c>
       <c r="F9" t="n">
-        <v>41.8799234011234</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3520627630014883</v>
+        <v>0.01</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2042674005889597</v>
+        <v>0.15</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3383063333004852</v>
+        <v>0.041</v>
       </c>
       <c r="J9" t="n">
-        <v>1.041119789709825</v>
+        <v>0.041</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3983258125827372</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.3931620495229492</v>
+        <v>0.01</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.041</v>
       </c>
     </row>
     <row r="10">
@@ -825,34 +1031,56 @@
         <v>18744.56910517852</v>
       </c>
       <c r="C10" t="n">
-        <v>19.2</v>
+        <v>0.3504149065993832</v>
       </c>
       <c r="D10" t="n">
-        <v>28.98755547189485</v>
+        <v>0.9707910208605587</v>
       </c>
       <c r="E10" t="n">
-        <v>53.4</v>
+        <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>41.46581019430108</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>0.276308038190774</v>
+        <v>0.01</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2241933665269851</v>
+        <v>0.15</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3504149065993832</v>
+        <v>0.041</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9707910208605587</v>
+        <v>0.041</v>
       </c>
       <c r="K10" t="n">
-        <v>0.456887495454748</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.3782208525409494</v>
+        <v>0.01</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.041</v>
       </c>
     </row>
     <row r="11">
@@ -865,34 +1093,5636 @@
         <v>18648.93034391663</v>
       </c>
       <c r="C11" t="n">
-        <v>19.2</v>
+        <v>0.3513351574569804</v>
       </c>
       <c r="D11" t="n">
-        <v>31.26566238502873</v>
+        <v>1.076081447160522</v>
       </c>
       <c r="E11" t="n">
-        <v>53.4</v>
+        <v>23</v>
       </c>
       <c r="F11" t="n">
-        <v>42.06385097280288</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3812534182403979</v>
+        <v>0.01</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1950124575115861</v>
+        <v>0.15</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3513351574569804</v>
+        <v>0.041</v>
       </c>
       <c r="J11" t="n">
-        <v>1.076081447160522</v>
+        <v>0.041</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3722115990717307</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.3997957363320088</v>
+        <v>0.01</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>design number = 534-p2022</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>18395.35638884424</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.3438845260507136</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9763608592330643</v>
+      </c>
+      <c r="E12" t="n">
+        <v>20</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>design number = 542-p2022</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>18391.04376918017</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.3369609584683871</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.011525243657698</v>
+      </c>
+      <c r="E13" t="n">
+        <v>21</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>design number = 550-p2022</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>18281.02970723802</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3453628624049022</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.046554476766373</v>
+      </c>
+      <c r="E14" t="n">
+        <v>22</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>design number = 526-p2022</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>18229.16283896123</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3483473413412001</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9410613234924735</v>
+      </c>
+      <c r="E15" t="n">
+        <v>19</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>design number = 890-p2022</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17963.3309450104</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5276710129677969</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.084683152964814</v>
+      </c>
+      <c r="E16" t="n">
+        <v>23</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>2</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>design number = 535-p2022</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17949.40844498445</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3355452731934193</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9819306976055696</v>
+      </c>
+      <c r="E17" t="n">
+        <v>20</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>design number = 558-p2022</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17947.02062904045</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3646552557970436</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.081448558559092</v>
+      </c>
+      <c r="E18" t="n">
+        <v>23</v>
+      </c>
+      <c r="F18" t="n">
+        <v>8</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>design number = 527-p2022</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>17903.1377817991</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3421151322052948</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9466987375229577</v>
+      </c>
+      <c r="E19" t="n">
+        <v>19</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>design number = 543-p2022</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17892.84921723232</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.3389450856637883</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.017027506372224</v>
+      </c>
+      <c r="E20" t="n">
+        <v>21</v>
+      </c>
+      <c r="F20" t="n">
+        <v>7</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>design number = 519-p2022</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>17676.5019161966</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.3464498626000774</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9113316261243883</v>
+      </c>
+      <c r="E21" t="n">
+        <v>18</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>design number = 551-p2022</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>17600.33886792309</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.3591380661696426</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.051989163822921</v>
+      </c>
+      <c r="E22" t="n">
+        <v>22</v>
+      </c>
+      <c r="F22" t="n">
+        <v>8</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>design number = 891-p2022</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>17546.00670027026</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5663651509529849</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.090050264363383</v>
+      </c>
+      <c r="E23" t="n">
+        <v>23</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>2</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>design number = 559-p2022</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>17524.20623706172</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.377867693974704</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.086815669957661</v>
+      </c>
+      <c r="E24" t="n">
+        <v>23</v>
+      </c>
+      <c r="F24" t="n">
+        <v>9</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>design number = 528-p2022</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>17480.44624573346</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.334035188613703</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.952336151553442</v>
+      </c>
+      <c r="E25" t="n">
+        <v>19</v>
+      </c>
+      <c r="F25" t="n">
+        <v>6</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>design number = 883-p2022</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>17451.42504636706</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5135334332861136</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.054953455596729</v>
+      </c>
+      <c r="E26" t="n">
+        <v>22</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>2</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>design number = 520-p2022</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>17377.68180590443</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.3405911179046809</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.9170366158128515</v>
+      </c>
+      <c r="E27" t="n">
+        <v>18</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>design number = 560-p2022</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>17369.50162278292</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.396525805140383</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.09218278135623</v>
+      </c>
+      <c r="E28" t="n">
+        <v>23</v>
+      </c>
+      <c r="F28" t="n">
+        <v>10</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>design number = 536-p2022</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>17367.17804578961</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3355217819203444</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9875005359780752</v>
+      </c>
+      <c r="E29" t="n">
+        <v>20</v>
+      </c>
+      <c r="F29" t="n">
+        <v>7</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>design number = 544-p2022</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>17235.23465000469</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.3531170511206535</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.022529769086751</v>
+      </c>
+      <c r="E30" t="n">
+        <v>21</v>
+      </c>
+      <c r="F30" t="n">
+        <v>8</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>design number = 892-p2022</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>17168.85243446644</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.6015625806141587</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.095417375761953</v>
+      </c>
+      <c r="E31" t="n">
+        <v>23</v>
+      </c>
+      <c r="F31" t="n">
+        <v>6</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>2</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>design number = 512-p2022</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>17102.96872727673</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.3443408218684317</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8816019287563034</v>
+      </c>
+      <c r="E32" t="n">
+        <v>17</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>design number = 884-p2022</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>17051.51095846481</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.5537598187521765</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.060388142653277</v>
+      </c>
+      <c r="E33" t="n">
+        <v>22</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>2</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>design number = 552-p2022</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>17035.0738348301</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.3691344523604413</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.057423850879469</v>
+      </c>
+      <c r="E34" t="n">
+        <v>22</v>
+      </c>
+      <c r="F34" t="n">
+        <v>9</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>design number = 521-p2022</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>16985.39828674314</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.3329000175935951</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.9227416055013143</v>
+      </c>
+      <c r="E35" t="n">
+        <v>18</v>
+      </c>
+      <c r="F35" t="n">
+        <v>6</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>design number = 876-p2022</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>16940.5497818803</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.4978071974607397</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.025223758228644</v>
+      </c>
+      <c r="E36" t="n">
+        <v>21</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>2</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>design number = 529-p2022</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>16927.78171777138</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.3282676191588462</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.9579735655839262</v>
+      </c>
+      <c r="E37" t="n">
+        <v>19</v>
+      </c>
+      <c r="F37" t="n">
+        <v>7</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>design number = 553-p2022</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>16888.04221631651</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.3877175590535036</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.062858537936017</v>
+      </c>
+      <c r="E38" t="n">
+        <v>22</v>
+      </c>
+      <c r="F38" t="n">
+        <v>10</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>design number = 715-p2022</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>16868.80308127181</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.4910533264927689</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.7955485166520478</v>
+      </c>
+      <c r="E39" t="n">
+        <v>14</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>design number = 537-p2022</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>16849.38747463563</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.3466661659679065</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.9930703743505805</v>
+      </c>
+      <c r="E40" t="n">
+        <v>20</v>
+      </c>
+      <c r="F40" t="n">
+        <v>8</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>design number = 513-p2022</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>16828.72178480263</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.3388173071128983</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.8873744941027449</v>
+      </c>
+      <c r="E41" t="n">
+        <v>17</v>
+      </c>
+      <c r="F41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>design number = 885-p2022</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>16686.47458223428</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.5891134437408131</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.065822829709825</v>
+      </c>
+      <c r="E42" t="n">
+        <v>22</v>
+      </c>
+      <c r="F42" t="n">
+        <v>6</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>2</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>design number = 545-p2022</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>16660.4463558124</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.3627924429138796</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.028032031801278</v>
+      </c>
+      <c r="E43" t="n">
+        <v>21</v>
+      </c>
+      <c r="F43" t="n">
+        <v>9</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>1</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>design number = 716-p2022</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>16649.49107485361</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.4846652291391215</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.8015238089724256</v>
+      </c>
+      <c r="E44" t="n">
+        <v>14</v>
+      </c>
+      <c r="F44" t="n">
+        <v>5</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>design number = 877-p2022</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>16531.79784612926</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.54018935934291</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.030726020943171</v>
+      </c>
+      <c r="E45" t="n">
+        <v>21</v>
+      </c>
+      <c r="F45" t="n">
+        <v>5</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>2</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>design number = 505-p2022</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>16476.46837494501</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.3426076209215859</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.8518722313882182</v>
+      </c>
+      <c r="E46" t="n">
+        <v>16</v>
+      </c>
+      <c r="F46" t="n">
+        <v>4</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>design number = 514-p2022</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>16464.91957773311</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.3311416609739957</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.8931470594491865</v>
+      </c>
+      <c r="E47" t="n">
+        <v>17</v>
+      </c>
+      <c r="F47" t="n">
+        <v>6</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>design number = 522-p2022</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>16453.30258777933</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.3228471853518213</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.9284465951897772</v>
+      </c>
+      <c r="E48" t="n">
+        <v>18</v>
+      </c>
+      <c r="F48" t="n">
+        <v>7</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>design number = 530-p2022</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>16439.15089635854</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.3396392707745921</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.9636109796144104</v>
+      </c>
+      <c r="E49" t="n">
+        <v>19</v>
+      </c>
+      <c r="F49" t="n">
+        <v>8</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>1</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>design number = 869-p2022</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>16393.18586465887</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.4844992661262213</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.9954940608605587</v>
+      </c>
+      <c r="E50" t="n">
+        <v>20</v>
+      </c>
+      <c r="F50" t="n">
+        <v>4</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>2</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>design number = 546-p2022</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>16387.70295257014</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.3783484869068204</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.033534294515805</v>
+      </c>
+      <c r="E51" t="n">
+        <v>21</v>
+      </c>
+      <c r="F51" t="n">
+        <v>10</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>design number = 538-p2022</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>16300.55129055156</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.3566890211958152</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.9986402127230861</v>
+      </c>
+      <c r="E52" t="n">
+        <v>20</v>
+      </c>
+      <c r="F52" t="n">
+        <v>9</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>design number = 506-p2022</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>16235.3380392716</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.3375917245028018</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.8577123723926384</v>
+      </c>
+      <c r="E53" t="n">
+        <v>16</v>
+      </c>
+      <c r="F53" t="n">
+        <v>5</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>design number = 878-p2022</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>16180.13806652887</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.5756255398794667</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.036228283657697</v>
+      </c>
+      <c r="E54" t="n">
+        <v>21</v>
+      </c>
+      <c r="F54" t="n">
+        <v>6</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>2</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>design number = 886-p2022</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>16124.72157701097</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.6268358347665113</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.071257516766373</v>
+      </c>
+      <c r="E55" t="n">
+        <v>22</v>
+      </c>
+      <c r="F55" t="n">
+        <v>7</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>2</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>design number = 523-p2022</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>15998.49422604336</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.331786465190116</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.9341515848782401</v>
+      </c>
+      <c r="E56" t="n">
+        <v>18</v>
+      </c>
+      <c r="F56" t="n">
+        <v>8</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>1</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>design number = 870-p2022</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>15988.47574959525</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.5256835875082165</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.001063899233064</v>
+      </c>
+      <c r="E57" t="n">
+        <v>20</v>
+      </c>
+      <c r="F57" t="n">
+        <v>5</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>2</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>design number = 862-p2022</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>15969.91605751392</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.4747587955495711</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.9657643634924735</v>
+      </c>
+      <c r="E58" t="n">
+        <v>19</v>
+      </c>
+      <c r="F58" t="n">
+        <v>4</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>2</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>design number = 515-p2022</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>15961.09102205286</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.3217001345347075</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.8989196247956283</v>
+      </c>
+      <c r="E59" t="n">
+        <v>17</v>
+      </c>
+      <c r="F59" t="n">
+        <v>7</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>design number = 531-p2022</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>15912.70596576821</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.3496360715320158</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.9692483936448945</v>
+      </c>
+      <c r="E60" t="n">
+        <v>19</v>
+      </c>
+      <c r="F60" t="n">
+        <v>9</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>design number = 507-p2022</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>15906.84749797227</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.3291884339898061</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.8635525133970589</v>
+      </c>
+      <c r="E61" t="n">
+        <v>16</v>
+      </c>
+      <c r="F61" t="n">
+        <v>6</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>1</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>design number = 887-p2022</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>15880.67687688342</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.6507056099291083</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.076692203822921</v>
+      </c>
+      <c r="E62" t="n">
+        <v>22</v>
+      </c>
+      <c r="F62" t="n">
+        <v>8</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>2</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>design number = 539-p2022</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>15866.87639667936</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.3683674796054023</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.004210051095592</v>
+      </c>
+      <c r="E63" t="n">
+        <v>20</v>
+      </c>
+      <c r="F63" t="n">
+        <v>10</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>1</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>design number = 718-p2022</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>15832.50816044516</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.461526818869891</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.8134743936131813</v>
+      </c>
+      <c r="E64" t="n">
+        <v>14</v>
+      </c>
+      <c r="F64" t="n">
+        <v>7</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>1</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>design number = 498-p2022</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>15806.91178964427</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.3410260572585995</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.822142534020133</v>
+      </c>
+      <c r="E65" t="n">
+        <v>15</v>
+      </c>
+      <c r="F65" t="n">
+        <v>4</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>design number = 708-p2022</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>15794.29100582758</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.4977545205375403</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.7658188192839627</v>
+      </c>
+      <c r="E66" t="n">
+        <v>13</v>
+      </c>
+      <c r="F66" t="n">
+        <v>4</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>1</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>design number = 888-p2022</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>15740.93840798679</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.6702324642917248</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.082126890879469</v>
+      </c>
+      <c r="E67" t="n">
+        <v>22</v>
+      </c>
+      <c r="F67" t="n">
+        <v>9</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>2</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>design number = 871-p2022</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>15651.14454161882</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.5611160716378983</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.00663373760557</v>
+      </c>
+      <c r="E68" t="n">
+        <v>20</v>
+      </c>
+      <c r="F68" t="n">
+        <v>6</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>2</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>design number = 879-p2022</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>15635.62655598971</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.6138305528665821</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.041730546372224</v>
+      </c>
+      <c r="E69" t="n">
+        <v>21</v>
+      </c>
+      <c r="F69" t="n">
+        <v>7</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>2</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>design number = 709-p2022</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>15635.41420944753</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.4912437180101316</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.7718616872623193</v>
+      </c>
+      <c r="E70" t="n">
+        <v>13</v>
+      </c>
+      <c r="F70" t="n">
+        <v>5</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>design number = 889-p2022</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>15620.57599378161</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.687341912599051</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.087561577936017</v>
+      </c>
+      <c r="E71" t="n">
+        <v>22</v>
+      </c>
+      <c r="F71" t="n">
+        <v>10</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>2</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>design number = 499-p2022</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>15606.98333414511</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.3367110013785024</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.8280502506825321</v>
+      </c>
+      <c r="E72" t="n">
+        <v>15</v>
+      </c>
+      <c r="F72" t="n">
+        <v>5</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>1</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>design number = 855-p2022</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>15550.00949488303</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.4642538586506004</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.9360346661243883</v>
+      </c>
+      <c r="E73" t="n">
+        <v>18</v>
+      </c>
+      <c r="F73" t="n">
+        <v>4</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>2</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>design number = 516-p2022</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>15536.40930811383</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.3234877479229871</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.9046921901420698</v>
+      </c>
+      <c r="E74" t="n">
+        <v>17</v>
+      </c>
+      <c r="F74" t="n">
+        <v>8</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>1</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>design number = 524-p2022</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>15506.41081455265</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.3420069325904463</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.939856574566703</v>
+      </c>
+      <c r="E75" t="n">
+        <v>18</v>
+      </c>
+      <c r="F75" t="n">
+        <v>9</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>1</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>design number = 719-p2022</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>15496.07456623565</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.4517139677728533</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.819449685933559</v>
+      </c>
+      <c r="E76" t="n">
+        <v>14</v>
+      </c>
+      <c r="F76" t="n">
+        <v>8</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>1</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>design number = 508-p2022</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>15417.45531817193</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.3209719385251628</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.8693926544014793</v>
+      </c>
+      <c r="E77" t="n">
+        <v>16</v>
+      </c>
+      <c r="F77" t="n">
+        <v>7</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>1</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>design number = 880-p2022</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>15410.98885934947</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.6381780344158479</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.047232809086751</v>
+      </c>
+      <c r="E78" t="n">
+        <v>21</v>
+      </c>
+      <c r="F78" t="n">
+        <v>8</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>2</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>design number = 666-p2022</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>15410.49736559332</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.4548951853005055</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.081547472964814</v>
+      </c>
+      <c r="E79" t="n">
+        <v>23</v>
+      </c>
+      <c r="F79" t="n">
+        <v>4</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>2</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>design number = 863-p2022</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>15402.20215739798</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.5105486776515513</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.9714017775229578</v>
+      </c>
+      <c r="E80" t="n">
+        <v>19</v>
+      </c>
+      <c r="F80" t="n">
+        <v>5</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>2</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>design number = 500-p2022</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>15387.2019136076</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.3295617106753626</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.8339579673449312</v>
+      </c>
+      <c r="E81" t="n">
+        <v>15</v>
+      </c>
+      <c r="F81" t="n">
+        <v>6</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>1</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>design number = 710-p2022</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>15374.9864648688</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.4797662392906658</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.7779045552406757</v>
+      </c>
+      <c r="E82" t="n">
+        <v>13</v>
+      </c>
+      <c r="F82" t="n">
+        <v>6</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>1</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>design number = 532-p2022</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>15368.36324137822</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.3587593023435017</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.9748858076753787</v>
+      </c>
+      <c r="E83" t="n">
+        <v>19</v>
+      </c>
+      <c r="F83" t="n">
+        <v>10</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>design number = 881-p2022</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>15223.95649010605</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.6588084787558558</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.052735071801278</v>
+      </c>
+      <c r="E84" t="n">
+        <v>21</v>
+      </c>
+      <c r="F84" t="n">
+        <v>9</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>2</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>design number = 872-p2022</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>15149.16911761873</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.5993157079289471</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.012203575978075</v>
+      </c>
+      <c r="E85" t="n">
+        <v>20</v>
+      </c>
+      <c r="F85" t="n">
+        <v>7</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>2</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>design number = 882-p2022</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>15116.09877067</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.6756350316929124</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.058237334515804</v>
+      </c>
+      <c r="E86" t="n">
+        <v>21</v>
+      </c>
+      <c r="F86" t="n">
+        <v>10</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>2</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>design number = 864-p2022</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>15095.21930183805</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.5454009911276405</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.977039191553442</v>
+      </c>
+      <c r="E87" t="n">
+        <v>19</v>
+      </c>
+      <c r="F87" t="n">
+        <v>6</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>2</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>design number = 667-p2022</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>15088.27597136693</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.4927712890274216</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1.086914584363383</v>
+      </c>
+      <c r="E88" t="n">
+        <v>23</v>
+      </c>
+      <c r="F88" t="n">
+        <v>5</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>2</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>design number = 491-p2022</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>15085.47600793572</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.3397124650207246</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.7924128366520479</v>
+      </c>
+      <c r="E89" t="n">
+        <v>14</v>
+      </c>
+      <c r="F89" t="n">
+        <v>4</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>1</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>design number = 720-p2022</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>15080.28854919267</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.4410753584301158</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.8254249782539368</v>
+      </c>
+      <c r="E90" t="n">
+        <v>14</v>
+      </c>
+      <c r="F90" t="n">
+        <v>9</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>1</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>design number = 848-p2022</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>15075.59775763162</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.4528165966226262</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.9063049687563034</v>
+      </c>
+      <c r="E91" t="n">
+        <v>17</v>
+      </c>
+      <c r="F91" t="n">
+        <v>4</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>2</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>design number = 517-p2022</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>15075.38872272241</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.3339731398851294</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.9104647554885116</v>
+      </c>
+      <c r="E92" t="n">
+        <v>17</v>
+      </c>
+      <c r="F92" t="n">
+        <v>9</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>1</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>design number = 509-p2022</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>15033.78996142511</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.3138789326371122</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.8752327954058995</v>
+      </c>
+      <c r="E93" t="n">
+        <v>16</v>
+      </c>
+      <c r="F93" t="n">
+        <v>8</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>1</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>design number = 525-p2022</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>14982.0930579432</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.3507709567483472</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.9455615642551661</v>
+      </c>
+      <c r="E94" t="n">
+        <v>18</v>
+      </c>
+      <c r="F94" t="n">
+        <v>10</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>1</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P94" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>design number = 492-p2022</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>14959.67903946253</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.3345189657132071</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.7983881289724256</v>
+      </c>
+      <c r="E95" t="n">
+        <v>14</v>
+      </c>
+      <c r="F95" t="n">
+        <v>5</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>1</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>design number = 659-p2022</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>14958.68611558442</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.4436298946353646</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.051817775596729</v>
+      </c>
+      <c r="E96" t="n">
+        <v>22</v>
+      </c>
+      <c r="F96" t="n">
+        <v>4</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>2</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P96" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>design number = 873-p2022</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>14927.36983560055</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.6247481659680307</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1.017773414350581</v>
+      </c>
+      <c r="E97" t="n">
+        <v>20</v>
+      </c>
+      <c r="F97" t="n">
+        <v>8</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>2</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>design number = 711-p2022</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>14887.75204209253</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.4691667737967318</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.7839474232190323</v>
+      </c>
+      <c r="E98" t="n">
+        <v>13</v>
+      </c>
+      <c r="F98" t="n">
+        <v>7</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>1</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>design number = 701-p2022</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>14872.90539161393</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.4996180269784033</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.7360891219158775</v>
+      </c>
+      <c r="E99" t="n">
+        <v>12</v>
+      </c>
+      <c r="F99" t="n">
+        <v>4</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>1</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>design number = 668-p2022</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>14839.0857328263</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.5254257761213743</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1.092281695761953</v>
+      </c>
+      <c r="E100" t="n">
+        <v>23</v>
+      </c>
+      <c r="F100" t="n">
+        <v>6</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>2</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P100" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>design number = 501-p2022</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>14832.74252574516</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.3204210399325346</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.8398656840073303</v>
+      </c>
+      <c r="E101" t="n">
+        <v>15</v>
+      </c>
+      <c r="F101" t="n">
+        <v>7</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>across_c</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>1</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="P101" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0.041</v>
       </c>
     </row>
   </sheetData>
